--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>20.08848764351111</v>
+        <v>19.77176968569167</v>
       </c>
       <c r="R2">
-        <v>180.7963887916</v>
+        <v>177.945927171225</v>
       </c>
       <c r="S2">
-        <v>0.1741377484309309</v>
+        <v>0.1718806088494653</v>
       </c>
       <c r="T2">
-        <v>0.1741377484309309</v>
+        <v>0.1718806088494653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>66.37314475071388</v>
+        <v>66.37314475071389</v>
       </c>
       <c r="R3">
-        <v>597.3583027564249</v>
+        <v>597.358302756425</v>
       </c>
       <c r="S3">
-        <v>0.5753578959391207</v>
+        <v>0.5769972396179723</v>
       </c>
       <c r="T3">
-        <v>0.5753578959391207</v>
+        <v>0.5769972396179723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
         <v>25.01309359323889</v>
@@ -694,10 +694,10 @@
         <v>225.11784233915</v>
       </c>
       <c r="S4">
-        <v>0.2168268650639676</v>
+        <v>0.2174446609665816</v>
       </c>
       <c r="T4">
-        <v>0.2168268650639675</v>
+        <v>0.2174446609665815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>0.7001077243822221</v>
+        <v>0.6890697262683333</v>
       </c>
       <c r="R5">
-        <v>6.30096951944</v>
+        <v>6.201627536415</v>
       </c>
       <c r="S5">
-        <v>0.006068907970899612</v>
+        <v>0.00599024396771352</v>
       </c>
       <c r="T5">
-        <v>0.006068907970899611</v>
+        <v>0.005990243967713519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,13 +803,13 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
         <v>2.313183160232778</v>
@@ -818,10 +818,10 @@
         <v>20.818648442095</v>
       </c>
       <c r="S6">
-        <v>0.02005190805697092</v>
+        <v>0.02010904113701401</v>
       </c>
       <c r="T6">
-        <v>0.02005190805697092</v>
+        <v>0.020109041137014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>0.8717361080677777</v>
@@ -880,10 +880,10 @@
         <v>7.845624972609999</v>
       </c>
       <c r="S7">
-        <v>0.007556674538110385</v>
+        <v>0.007578205461253396</v>
       </c>
       <c r="T7">
-        <v>0.007556674538110383</v>
+        <v>0.007578205461253394</v>
       </c>
     </row>
   </sheetData>
